--- a/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Efna3-Ephb1.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Efna3-Ephb1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="24">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -79,19 +79,13 @@
     <t>ECs</t>
   </si>
   <si>
-    <t>Neutrophils</t>
+    <t>MuSCs</t>
   </si>
   <si>
     <t>Efna3</t>
   </si>
   <si>
     <t>Ephb1</t>
-  </si>
-  <si>
-    <t>MuSCs</t>
-  </si>
-  <si>
-    <t>Resolving-Mac</t>
   </si>
 </sst>
 </file>
@@ -449,7 +443,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T9"/>
+  <dimension ref="A1:T5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -537,16 +531,16 @@
         <v>0.5</v>
       </c>
       <c r="G2">
-        <v>0.22756</v>
+        <v>0.1806205</v>
       </c>
       <c r="H2">
-        <v>0.45512</v>
+        <v>0.361241</v>
       </c>
       <c r="I2">
-        <v>0.8582128485531142</v>
+        <v>0.7284509268949775</v>
       </c>
       <c r="J2">
-        <v>0.8013988205815389</v>
+        <v>0.7284509268949775</v>
       </c>
       <c r="K2">
         <v>2</v>
@@ -555,28 +549,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>4.8398145</v>
+        <v>1.058059</v>
       </c>
       <c r="N2">
-        <v>9.679629</v>
+        <v>2.116118</v>
       </c>
       <c r="O2">
-        <v>0.6099383944911378</v>
+        <v>0.806213901461467</v>
       </c>
       <c r="P2">
-        <v>0.5555826661207054</v>
+        <v>0.806213901461467</v>
       </c>
       <c r="Q2">
-        <v>1.10134818762</v>
+        <v>0.1911071456095</v>
       </c>
       <c r="R2">
-        <v>4.40539275048</v>
+        <v>0.764428582438</v>
       </c>
       <c r="S2">
-        <v>0.5234569669781525</v>
+        <v>0.5872872637952217</v>
       </c>
       <c r="T2">
-        <v>0.4452432933646802</v>
+        <v>0.5872872637952217</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,7 +584,7 @@
         <v>23</v>
       </c>
       <c r="D3" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E3">
         <v>1</v>
@@ -599,16 +593,16 @@
         <v>0.5</v>
       </c>
       <c r="G3">
-        <v>0.22756</v>
+        <v>0.1806205</v>
       </c>
       <c r="H3">
-        <v>0.45512</v>
+        <v>0.361241</v>
       </c>
       <c r="I3">
-        <v>0.8582128485531142</v>
+        <v>0.7284509268949775</v>
       </c>
       <c r="J3">
-        <v>0.8013988205815389</v>
+        <v>0.7284509268949775</v>
       </c>
       <c r="K3">
         <v>2</v>
@@ -617,33 +611,33 @@
         <v>1</v>
       </c>
       <c r="M3">
-        <v>1.542474</v>
+        <v>0.254321</v>
       </c>
       <c r="N3">
-        <v>3.084948</v>
+        <v>0.508642</v>
       </c>
       <c r="O3">
-        <v>0.1943905319314043</v>
+        <v>0.193786098538533</v>
       </c>
       <c r="P3">
-        <v>0.1770670791911279</v>
+        <v>0.193786098538533</v>
       </c>
       <c r="Q3">
-        <v>0.35100538344</v>
+        <v>0.0459355861805</v>
       </c>
       <c r="R3">
-        <v>1.40402153376</v>
+        <v>0.183742344722</v>
       </c>
       <c r="S3">
-        <v>0.1668284521406055</v>
+        <v>0.1411636630997558</v>
       </c>
       <c r="T3">
-        <v>0.1419013484275878</v>
+        <v>0.1411636630997558</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B4" t="s">
         <v>22</v>
@@ -652,7 +646,7 @@
         <v>23</v>
       </c>
       <c r="D4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E4">
         <v>1</v>
@@ -661,51 +655,51 @@
         <v>0.5</v>
       </c>
       <c r="G4">
-        <v>0.22756</v>
+        <v>0.067331</v>
       </c>
       <c r="H4">
-        <v>0.45512</v>
+        <v>0.134662</v>
       </c>
       <c r="I4">
-        <v>0.8582128485531142</v>
+        <v>0.2715490731050226</v>
       </c>
       <c r="J4">
-        <v>0.8013988205815389</v>
+        <v>0.2715490731050226</v>
       </c>
       <c r="K4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>1.542577333333333</v>
+        <v>1.058059</v>
       </c>
       <c r="N4">
-        <v>4.627732</v>
+        <v>2.116118</v>
       </c>
       <c r="O4">
-        <v>0.194403554531223</v>
+        <v>0.806213901461467</v>
       </c>
       <c r="P4">
-        <v>0.2656184118887309</v>
+        <v>0.806213901461467</v>
       </c>
       <c r="Q4">
-        <v>0.3510288979733333</v>
+        <v>0.071240170529</v>
       </c>
       <c r="R4">
-        <v>2.10617338784</v>
+        <v>0.284960682116</v>
       </c>
       <c r="S4">
-        <v>0.1668396283030916</v>
+        <v>0.2189266376662454</v>
       </c>
       <c r="T4">
-        <v>0.2128662820123703</v>
+        <v>0.2189266376662454</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B5" t="s">
         <v>22</v>
@@ -714,7 +708,7 @@
         <v>23</v>
       </c>
       <c r="D5" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="E5">
         <v>1</v>
@@ -723,294 +717,46 @@
         <v>0.5</v>
       </c>
       <c r="G5">
-        <v>0.22756</v>
+        <v>0.067331</v>
       </c>
       <c r="H5">
-        <v>0.45512</v>
+        <v>0.134662</v>
       </c>
       <c r="I5">
-        <v>0.8582128485531142</v>
+        <v>0.2715490731050226</v>
       </c>
       <c r="J5">
-        <v>0.8013988205815389</v>
+        <v>0.2715490731050226</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L5">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M5">
-        <v>0.01005766666666667</v>
+        <v>0.254321</v>
       </c>
       <c r="N5">
-        <v>0.030173</v>
+        <v>0.508642</v>
       </c>
       <c r="O5">
-        <v>0.001267519046234871</v>
+        <v>0.193786098538533</v>
       </c>
       <c r="P5">
-        <v>0.001731842799435809</v>
+        <v>0.193786098538533</v>
       </c>
       <c r="Q5">
-        <v>0.002288722626666667</v>
+        <v>0.017123687251</v>
       </c>
       <c r="R5">
-        <v>0.01373233576</v>
+        <v>0.068494749004</v>
       </c>
       <c r="S5">
-        <v>0.001087801131264555</v>
+        <v>0.05262243543877722</v>
       </c>
       <c r="T5">
-        <v>0.001387896776900488</v>
-      </c>
-    </row>
-    <row r="6" spans="1:20">
-      <c r="A6" t="s">
-        <v>21</v>
-      </c>
-      <c r="B6" t="s">
-        <v>22</v>
-      </c>
-      <c r="C6" t="s">
-        <v>23</v>
-      </c>
-      <c r="D6" t="s">
-        <v>20</v>
-      </c>
-      <c r="E6">
-        <v>1</v>
-      </c>
-      <c r="F6">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G6">
-        <v>0.03759566666666666</v>
-      </c>
-      <c r="H6">
-        <v>0.112787</v>
-      </c>
-      <c r="I6">
-        <v>0.1417871514468859</v>
-      </c>
-      <c r="J6">
-        <v>0.1986011794184611</v>
-      </c>
-      <c r="K6">
-        <v>2</v>
-      </c>
-      <c r="L6">
-        <v>1</v>
-      </c>
-      <c r="M6">
-        <v>4.8398145</v>
-      </c>
-      <c r="N6">
-        <v>9.679629</v>
-      </c>
-      <c r="O6">
-        <v>0.6099383944911378</v>
-      </c>
-      <c r="P6">
-        <v>0.5555826661207054</v>
-      </c>
-      <c r="Q6">
-        <v>0.1819560526705</v>
-      </c>
-      <c r="R6">
-        <v>1.091736316023</v>
-      </c>
-      <c r="S6">
-        <v>0.0864814275129854</v>
-      </c>
-      <c r="T6">
-        <v>0.1103393727560252</v>
-      </c>
-    </row>
-    <row r="7" spans="1:20">
-      <c r="A7" t="s">
-        <v>21</v>
-      </c>
-      <c r="B7" t="s">
-        <v>22</v>
-      </c>
-      <c r="C7" t="s">
-        <v>23</v>
-      </c>
-      <c r="D7" t="s">
-        <v>24</v>
-      </c>
-      <c r="E7">
-        <v>1</v>
-      </c>
-      <c r="F7">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G7">
-        <v>0.03759566666666666</v>
-      </c>
-      <c r="H7">
-        <v>0.112787</v>
-      </c>
-      <c r="I7">
-        <v>0.1417871514468859</v>
-      </c>
-      <c r="J7">
-        <v>0.1986011794184611</v>
-      </c>
-      <c r="K7">
-        <v>2</v>
-      </c>
-      <c r="L7">
-        <v>1</v>
-      </c>
-      <c r="M7">
-        <v>1.542474</v>
-      </c>
-      <c r="N7">
-        <v>3.084948</v>
-      </c>
-      <c r="O7">
-        <v>0.1943905319314043</v>
-      </c>
-      <c r="P7">
-        <v>0.1770670791911279</v>
-      </c>
-      <c r="Q7">
-        <v>0.05799033834599999</v>
-      </c>
-      <c r="R7">
-        <v>0.347942030076</v>
-      </c>
-      <c r="S7">
-        <v>0.02756207979079873</v>
-      </c>
-      <c r="T7">
-        <v>0.03516573076354005</v>
-      </c>
-    </row>
-    <row r="8" spans="1:20">
-      <c r="A8" t="s">
-        <v>21</v>
-      </c>
-      <c r="B8" t="s">
-        <v>22</v>
-      </c>
-      <c r="C8" t="s">
-        <v>23</v>
-      </c>
-      <c r="D8" t="s">
-        <v>21</v>
-      </c>
-      <c r="E8">
-        <v>1</v>
-      </c>
-      <c r="F8">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G8">
-        <v>0.03759566666666666</v>
-      </c>
-      <c r="H8">
-        <v>0.112787</v>
-      </c>
-      <c r="I8">
-        <v>0.1417871514468859</v>
-      </c>
-      <c r="J8">
-        <v>0.1986011794184611</v>
-      </c>
-      <c r="K8">
-        <v>3</v>
-      </c>
-      <c r="L8">
-        <v>1</v>
-      </c>
-      <c r="M8">
-        <v>1.542577333333333</v>
-      </c>
-      <c r="N8">
-        <v>4.627732</v>
-      </c>
-      <c r="O8">
-        <v>0.194403554531223</v>
-      </c>
-      <c r="P8">
-        <v>0.2656184118887309</v>
-      </c>
-      <c r="Q8">
-        <v>0.05799422323155554</v>
-      </c>
-      <c r="R8">
-        <v>0.521948009084</v>
-      </c>
-      <c r="S8">
-        <v>0.02756392622813147</v>
-      </c>
-      <c r="T8">
-        <v>0.05275212987636054</v>
-      </c>
-    </row>
-    <row r="9" spans="1:20">
-      <c r="A9" t="s">
-        <v>21</v>
-      </c>
-      <c r="B9" t="s">
-        <v>22</v>
-      </c>
-      <c r="C9" t="s">
-        <v>23</v>
-      </c>
-      <c r="D9" t="s">
-        <v>25</v>
-      </c>
-      <c r="E9">
-        <v>1</v>
-      </c>
-      <c r="F9">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G9">
-        <v>0.03759566666666666</v>
-      </c>
-      <c r="H9">
-        <v>0.112787</v>
-      </c>
-      <c r="I9">
-        <v>0.1417871514468859</v>
-      </c>
-      <c r="J9">
-        <v>0.1986011794184611</v>
-      </c>
-      <c r="K9">
-        <v>1</v>
-      </c>
-      <c r="L9">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M9">
-        <v>0.01005766666666667</v>
-      </c>
-      <c r="N9">
-        <v>0.030173</v>
-      </c>
-      <c r="O9">
-        <v>0.001267519046234871</v>
-      </c>
-      <c r="P9">
-        <v>0.001731842799435809</v>
-      </c>
-      <c r="Q9">
-        <v>0.0003781246834444444</v>
-      </c>
-      <c r="R9">
-        <v>0.003403122151</v>
-      </c>
-      <c r="S9">
-        <v>0.0001797179149703161</v>
-      </c>
-      <c r="T9">
-        <v>0.0003439460225353211</v>
+        <v>0.05262243543877722</v>
       </c>
     </row>
   </sheetData>
